--- a/section2/section2/Resource/190530INVENTORY.xlsx
+++ b/section2/section2/Resource/190530INVENTORY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinhe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\section2\section2\section2\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -946,7 +946,7 @@
   <dimension ref="A1:CD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1762,7 @@
   <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
